--- a/biology/Médecine/Crise_cholinergique/Crise_cholinergique.xlsx
+++ b/biology/Médecine/Crise_cholinergique/Crise_cholinergique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une crise cholinergique est causée par la sur-stimulation de la jonction neuromusculaire causée par l'excès d'acétylcholine (ACh). Cet excès peut être causé par l'inactivité (peut-être aussi l'inhibition) de l'enzyme AChE, qui dégrade normalement l'acétylcholine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paralysie flasque,
 Insuffisance respiratoire,
@@ -544,7 +558,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gaz agissants sur le système nerveux (par exemple gaz sarin),
 Surdosage en traitement par anticholinestérase dans le traitement d'une myasthénie ou en antidote des curares.</t>
@@ -575,7 +591,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de la crise cholinergique, l'acétylcholine suractive les récepteurs nicotiniques de la plaque motrice. Ceci entraîne une paralysie musculaire.
 </t>
@@ -606,7 +624,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Identification et éradication du facteur déclenchant,
 Bloqueurs des récepteurs à l'acétylcholine (Atropine).</t>
